--- a/output/result_ans.xlsx
+++ b/output/result_ans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,26 +447,338 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
